--- a/Running projects/Bank Al Habib Center Point Karachi/FIRE PIPE LOOP WORK/PO/001- Purchase order- for Fire equipment NEXUS.xlsx
+++ b/Running projects/Bank Al Habib Center Point Karachi/FIRE PIPE LOOP WORK/PO/001- Purchase order- for Fire equipment NEXUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Bank Al Habib Center Point Karachi\FIRE PIPE LOOP WORK\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B32D6B5-47AE-4097-919E-5E439150D045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E840BC24-B4A1-4F1D-B1AB-99D6FC5B84AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$57</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$21:$21</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>S No.</t>
   </si>
@@ -137,9 +137,6 @@
     <t>OS &amp; Y Gate Valve 06" Dia</t>
   </si>
   <si>
-    <t>OS &amp; Y Gate Valve 08" Dia</t>
-  </si>
-  <si>
     <t>Lock Shield Valve 1"</t>
   </si>
   <si>
@@ -157,9 +154,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -387,11 +385,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -495,6 +494,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -540,13 +545,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -572,7 +578,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
+      <xdr:colOff>346075</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -696,13 +702,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -770,13 +776,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>73024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>605219</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>73024</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -975,13 +981,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>5145</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1025,13 +1031,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1063,6 +1069,50 @@
         <a:xfrm>
           <a:off x="114300" y="8753474"/>
           <a:ext cx="752475" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66854</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{546896BB-5EF6-0733-CAC9-79BAA2B19631}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9420225" y="6667500"/>
+          <a:ext cx="1286054" cy="523948"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1337,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:I54"/>
+  <dimension ref="A4:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1353,7 +1403,7 @@
     <col min="6" max="6" width="11.5703125" style="8" customWidth="1"/>
     <col min="7" max="7" width="14" style="6" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="8"/>
+    <col min="9" max="9" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1378,50 +1428,50 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
+      <c r="A13" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
     </row>
     <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
     </row>
     <row r="16" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
+      <c r="A20" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
@@ -1494,7 +1544,7 @@
         <v>188917</v>
       </c>
       <c r="G23" s="37">
-        <f t="shared" ref="G23:G26" si="0">F23*D23</f>
+        <f t="shared" ref="G23:G25" si="0">F23*D23</f>
         <v>377834</v>
       </c>
       <c r="H23" s="26"/>
@@ -1509,26 +1559,26 @@
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="27">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E24" s="27" t="s">
         <v>21</v>
       </c>
       <c r="F24" s="36">
-        <v>277193</v>
+        <v>5515</v>
       </c>
       <c r="G24" s="37">
         <f t="shared" si="0"/>
-        <v>277193</v>
+        <v>303325</v>
       </c>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>4</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="38" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="25"/>
@@ -1539,299 +1589,283 @@
         <v>21</v>
       </c>
       <c r="F25" s="36">
-        <v>5515</v>
+        <v>11572</v>
       </c>
       <c r="G25" s="37">
         <f t="shared" si="0"/>
-        <v>303325</v>
+        <v>636460</v>
       </c>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
-        <v>5</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="27">
-        <v>55</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="36">
-        <v>11572</v>
-      </c>
-      <c r="G26" s="37">
-        <f t="shared" si="0"/>
-        <v>636460</v>
-      </c>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-    </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="21">
+    <row r="26" spans="1:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="21">
         <v>6</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D26" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="18">
-        <f>SUM(G22:G26)</f>
-        <v>1710327</v>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="18">
+        <f>SUM(G22:G25)</f>
+        <v>1433134</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="56">
+        <v>9.3740000000000004E-2</v>
+      </c>
+      <c r="G27" s="28">
+        <f>F27*G26</f>
+        <v>134341.98116</v>
       </c>
       <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-    </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31">
-        <v>3</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="28">
-        <v>160327</v>
+      <c r="I27" s="40">
+        <f>G27/G26</f>
+        <v>9.3740000000000004E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="18">
+        <f>G26-G27</f>
+        <v>1298792.01884</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
     </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="18">
-        <f>G27-G28</f>
-        <v>1550000</v>
+    <row r="29" spans="1:9" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31">
+        <v>4</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="28">
+        <f>G28*18%</f>
+        <v>233782.5633912</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
     </row>
     <row r="30" spans="1:9" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="9"/>
       <c r="G30" s="28">
-        <f>G29*18%</f>
-        <v>279000</v>
+        <f>G29+G28</f>
+        <v>1532574.5822312001</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31">
+    <row r="32" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="28">
-        <f>G30+G29</f>
-        <v>1829000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-    </row>
-    <row r="33" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>5</v>
+    </row>
+    <row r="33" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>9</v>
-      </c>
+      <c r="A34" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
     </row>
     <row r="35" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
     </row>
     <row r="36" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40"/>
-    </row>
-    <row r="41" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="13" t="s">
+      <c r="A39"/>
+    </row>
+    <row r="40" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="16"/>
-    </row>
-    <row r="42" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="16"/>
+      <c r="I40" s="8">
+        <f>I27*G26</f>
+        <v>134341.98116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+    </row>
+    <row r="42" spans="1:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="43" spans="1:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="41" t="s">
+      <c r="A43" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-    </row>
-    <row r="45" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45"/>
-    </row>
-    <row r="46" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+    </row>
+    <row r="44" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+    </row>
+    <row r="45" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="42">
+        <v>1000000</v>
+      </c>
+      <c r="F47" s="42"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
     <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="40">
-        <v>1000000</v>
-      </c>
-      <c r="F48" s="40"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
       <c r="G48" s="8"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="5"/>
-      <c r="D50" s="8"/>
+    <row r="50" spans="2:9" ht="21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
       <c r="G50" s="8"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="2:9" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
+    <row r="51" spans="2:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
       <c r="G51" s="8"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="2:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
+    <row r="52" spans="2:9" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="23"/>
+      <c r="C52" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
       <c r="G52" s="8"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="2:9" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="23"/>
       <c r="C53" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
+        <v>15</v>
+      </c>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
       <c r="G53" s="8"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="2:9" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="23"/>
-      <c r="C54" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A35:G36"/>
+    <mergeCell ref="A34:G35"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="A15:G15"/>
-    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D26:F26"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="A14:G14"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="E48:F49"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="B48:D49"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="D28:F28"/>
     <mergeCell ref="D53:E53"/>
+    <mergeCell ref="E47:F48"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="B47:D48"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="D52:E52"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Running projects/Bank Al Habib Center Point Karachi/FIRE PIPE LOOP WORK/PO/001- Purchase order- for Fire equipment NEXUS.xlsx
+++ b/Running projects/Bank Al Habib Center Point Karachi/FIRE PIPE LOOP WORK/PO/001- Purchase order- for Fire equipment NEXUS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Bank Al Habib Center Point Karachi\FIRE PIPE LOOP WORK\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E840BC24-B4A1-4F1D-B1AB-99D6FC5B84AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FA7FF3-E94B-4ABA-835D-B0CC5C723EBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$57</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$21:$21</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -390,7 +390,7 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -500,6 +500,33 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -521,32 +548,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -634,8 +637,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>428625</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1389,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1428,50 +1431,50 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
     </row>
     <row r="16" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
@@ -1498,7 +1501,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>1</v>
       </c>
@@ -1524,7 +1527,7 @@
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>2</v>
       </c>
@@ -1550,7 +1553,7 @@
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="3" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>3</v>
       </c>
@@ -1604,11 +1607,11 @@
       <c r="C26" s="21">
         <v>6</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="18">
         <f>SUM(G22:G25)</f>
         <v>1433134</v>
@@ -1624,7 +1627,7 @@
       <c r="C27" s="29"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
-      <c r="F27" s="56">
+      <c r="F27" s="41">
         <v>9.3740000000000004E-2</v>
       </c>
       <c r="G27" s="28">
@@ -1641,11 +1644,11 @@
       <c r="A28" s="4"/>
       <c r="B28" s="35"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
       <c r="G28" s="18">
         <f>G26-G27</f>
         <v>1298792.01884</v>
@@ -1700,24 +1703,24 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
     </row>
     <row r="35" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
     </row>
     <row r="36" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1761,18 +1764,22 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
     </row>
     <row r="44" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44"/>
+      <c r="G44" s="57">
+        <f>G28-800000</f>
+        <v>498792.01884000003</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
@@ -1780,25 +1787,25 @@
       </c>
     </row>
     <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="42">
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="51">
         <v>1000000</v>
       </c>
-      <c r="F47" s="42"/>
+      <c r="F47" s="51"/>
       <c r="G47" s="8"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
       <c r="G48" s="8"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -1811,19 +1818,19 @@
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="2:9" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
       <c r="G50" s="8"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="2:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="47" t="s">
+      <c r="C51" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
       <c r="G51" s="8"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -1833,8 +1840,8 @@
       <c r="C52" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
       <c r="G52" s="8"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -1844,14 +1851,21 @@
       <c r="C53" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
       <c r="G53" s="8"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="E47:F48"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="B47:D48"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="D52:E52"/>
     <mergeCell ref="A34:G35"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="A15:G15"/>
@@ -1859,13 +1873,6 @@
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="E47:F48"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="B47:D48"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="D52:E52"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Running projects/Bank Al Habib Center Point Karachi/FIRE PIPE LOOP WORK/PO/001- Purchase order- for Fire equipment NEXUS.xlsx
+++ b/Running projects/Bank Al Habib Center Point Karachi/FIRE PIPE LOOP WORK/PO/001- Purchase order- for Fire equipment NEXUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Bank Al Habib Center Point Karachi\FIRE PIPE LOOP WORK\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FA7FF3-E94B-4ABA-835D-B0CC5C723EBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356D0DB0-9EB8-441C-8B5D-E48E2FA8FE58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>S No.</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Supply of Fire Equipment for Bank Al Habib Center Point Karachi</t>
+  </si>
+  <si>
+    <t>Less</t>
   </si>
 </sst>
 </file>
@@ -503,6 +506,30 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -526,30 +553,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -581,7 +584,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>346075</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1406,7 +1409,7 @@
     <col min="6" max="6" width="11.5703125" style="8" customWidth="1"/>
     <col min="7" max="7" width="14" style="6" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="8" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1431,50 +1434,50 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
     </row>
     <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
     </row>
     <row r="16" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="56"/>
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
@@ -1607,11 +1610,11 @@
       <c r="C26" s="21">
         <v>6</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
       <c r="G26" s="18">
         <f>SUM(G22:G25)</f>
         <v>1433134</v>
@@ -1644,11 +1647,11 @@
       <c r="A28" s="4"/>
       <c r="B28" s="35"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="18">
         <f>G26-G27</f>
         <v>1298792.01884</v>
@@ -1703,24 +1706,24 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
     </row>
     <row r="35" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
     </row>
     <row r="36" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1764,48 +1767,59 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
     </row>
     <row r="44" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44"/>
-      <c r="G44" s="57">
-        <f>G28-800000</f>
-        <v>498792.01884000003</v>
+      <c r="F44" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" s="42">
+        <v>800000</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F45" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" s="6">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G46" s="42"/>
     </row>
     <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="51">
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="44">
         <v>1000000</v>
       </c>
-      <c r="F47" s="51"/>
+      <c r="F47" s="44"/>
       <c r="G47" s="8"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
       <c r="G48" s="8"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -1818,19 +1832,19 @@
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="2:9" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
       <c r="G50" s="8"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="2:9" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="56" t="s">
+      <c r="C51" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
       <c r="G51" s="8"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -1840,8 +1854,8 @@
       <c r="C52" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
       <c r="G52" s="8"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -1851,14 +1865,21 @@
       <c r="C53" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
       <c r="G53" s="8"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A34:G35"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="D28:F28"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="E47:F48"/>
     <mergeCell ref="A43:G43"/>
@@ -1866,13 +1887,6 @@
     <mergeCell ref="B50:D50"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="D52:E52"/>
-    <mergeCell ref="A34:G35"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="D28:F28"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
